--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>298600</v>
+        <v>312700</v>
       </c>
       <c r="E8" s="3">
-        <v>110200</v>
+        <v>115400</v>
       </c>
       <c r="F8" s="3">
-        <v>214100</v>
+        <v>224300</v>
       </c>
       <c r="G8" s="3">
-        <v>94700</v>
+        <v>99200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>275000</v>
+        <v>288000</v>
       </c>
       <c r="E9" s="3">
-        <v>99800</v>
+        <v>104500</v>
       </c>
       <c r="F9" s="3">
-        <v>197200</v>
+        <v>206600</v>
       </c>
       <c r="G9" s="3">
-        <v>87200</v>
+        <v>91300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="E10" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="F10" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="G10" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -817,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300400</v>
+        <v>314600</v>
       </c>
       <c r="E17" s="3">
-        <v>113500</v>
+        <v>118900</v>
       </c>
       <c r="F17" s="3">
-        <v>221700</v>
+        <v>232200</v>
       </c>
       <c r="G17" s="3">
-        <v>93600</v>
+        <v>98000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -972,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500</v>
+        <v>-7900</v>
       </c>
       <c r="G18" s="3">
         <v>1200</v>
@@ -1014,16 +1014,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1043,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="G21" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1104,13 +1104,13 @@
         <v>1200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F23" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1130,10 +1130,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -1191,13 +1191,13 @@
         <v>-2000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="G26" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F27" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G27" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1362,16 +1362,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1391,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F33" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G33" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1449,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F35" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G35" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1538,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="E41" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46000</v>
+        <v>48200</v>
       </c>
       <c r="E43" s="3">
-        <v>29400</v>
+        <v>30800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>75700</v>
+        <v>79300</v>
       </c>
       <c r="E46" s="3">
-        <v>52100</v>
+        <v>54600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1712,10 +1712,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1741,10 +1741,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="E49" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="E52" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108000</v>
+        <v>113200</v>
       </c>
       <c r="E54" s="3">
-        <v>78400</v>
+        <v>82100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="E57" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20900</v>
+        <v>21900</v>
       </c>
       <c r="E58" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="E59" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>65700</v>
+        <v>68800</v>
       </c>
       <c r="E60" s="3">
-        <v>40200</v>
+        <v>42100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -2115,10 +2115,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71500</v>
+        <v>74900</v>
       </c>
       <c r="E66" s="3">
-        <v>43800</v>
+        <v>45800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2331,10 +2331,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>149700</v>
+        <v>156800</v>
       </c>
       <c r="E70" s="3">
-        <v>149700</v>
+        <v>156800</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-176100</v>
+        <v>-184400</v>
       </c>
       <c r="E72" s="3">
-        <v>-177100</v>
+        <v>-185500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-113200</v>
+        <v>-118600</v>
       </c>
       <c r="E76" s="3">
-        <v>-115100</v>
+        <v>-120500</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2597,16 +2597,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F81" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G81" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2639,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -2813,16 +2813,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E89" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F89" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2855,7 +2855,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>-13700</v>
+        <v>-14300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11300</v>
+        <v>-11900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3100,16 +3100,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F100" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G100" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3158,16 +3158,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="E102" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F102" s="3">
         <v>1200</v>
       </c>
       <c r="G102" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>312700</v>
+        <v>314100</v>
       </c>
       <c r="E8" s="3">
-        <v>115400</v>
+        <v>115900</v>
       </c>
       <c r="F8" s="3">
-        <v>224300</v>
+        <v>225300</v>
       </c>
       <c r="G8" s="3">
-        <v>99200</v>
+        <v>99700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>288000</v>
+        <v>289300</v>
       </c>
       <c r="E9" s="3">
-        <v>104500</v>
+        <v>105000</v>
       </c>
       <c r="F9" s="3">
-        <v>206600</v>
+        <v>207500</v>
       </c>
       <c r="G9" s="3">
-        <v>91300</v>
+        <v>91700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="E10" s="3">
         <v>10900</v>
       </c>
       <c r="F10" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="G10" s="3">
         <v>7900</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>314600</v>
+        <v>316000</v>
       </c>
       <c r="E17" s="3">
-        <v>118900</v>
+        <v>119400</v>
       </c>
       <c r="F17" s="3">
-        <v>232200</v>
+        <v>233200</v>
       </c>
       <c r="G17" s="3">
-        <v>98000</v>
+        <v>98400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1107,7 +1107,7 @@
         <v>-1700</v>
       </c>
       <c r="F23" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="G23" s="3">
         <v>2200</v>
@@ -1188,13 +1188,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E26" s="3">
         <v>-3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G26" s="3">
         <v>2400</v>
@@ -1538,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="E41" s="3">
         <v>7900</v>
@@ -1570,7 +1570,7 @@
         <v>8600</v>
       </c>
       <c r="E42" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48200</v>
+        <v>48400</v>
       </c>
       <c r="E43" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1683,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79300</v>
+        <v>79700</v>
       </c>
       <c r="E46" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1773,7 +1773,7 @@
         <v>14200</v>
       </c>
       <c r="E49" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E52" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113200</v>
+        <v>113700</v>
       </c>
       <c r="E54" s="3">
-        <v>82100</v>
+        <v>82500</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1970,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="E57" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="E58" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
         <v>9000</v>
@@ -2057,10 +2057,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68800</v>
+        <v>69100</v>
       </c>
       <c r="E60" s="3">
-        <v>42100</v>
+        <v>42300</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2118,7 +2118,7 @@
         <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74900</v>
+        <v>75200</v>
       </c>
       <c r="E66" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2331,10 +2331,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>156800</v>
+        <v>157500</v>
       </c>
       <c r="E70" s="3">
-        <v>156800</v>
+        <v>157500</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-184400</v>
+        <v>-185200</v>
       </c>
       <c r="E72" s="3">
-        <v>-185500</v>
+        <v>-186300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2505,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-118600</v>
+        <v>-119100</v>
       </c>
       <c r="E76" s="3">
-        <v>-120500</v>
+        <v>-121000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2639,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -2948,7 +2948,7 @@
         <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="G94" s="3">
         <v>-11900</v>
@@ -3103,13 +3103,13 @@
         <v>12300</v>
       </c>
       <c r="E100" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F100" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G100" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3158,13 +3158,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E102" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G102" s="3">
         <v>1800</v>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,25 +712,28 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>314100</v>
+        <v>130300</v>
       </c>
       <c r="E8" s="3">
-        <v>115900</v>
+        <v>316600</v>
       </c>
       <c r="F8" s="3">
-        <v>225300</v>
+        <v>116800</v>
       </c>
       <c r="G8" s="3">
-        <v>99700</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>227000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -740,25 +744,28 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>289300</v>
+        <v>133800</v>
       </c>
       <c r="E9" s="3">
-        <v>105000</v>
+        <v>291600</v>
       </c>
       <c r="F9" s="3">
-        <v>207500</v>
+        <v>105800</v>
       </c>
       <c r="G9" s="3">
-        <v>91700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>209100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>92400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -769,25 +776,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>24800</v>
+        <v>-3400</v>
       </c>
       <c r="E10" s="3">
-        <v>10900</v>
+        <v>25000</v>
       </c>
       <c r="F10" s="3">
-        <v>17800</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,25 +963,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>316000</v>
+        <v>141200</v>
       </c>
       <c r="E17" s="3">
-        <v>119400</v>
+        <v>318500</v>
       </c>
       <c r="F17" s="3">
-        <v>233200</v>
+        <v>120400</v>
       </c>
       <c r="G17" s="3">
-        <v>98400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>235000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>99200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-7900</v>
-      </c>
       <c r="G18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,26 +1041,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
-        <v>2100</v>
-      </c>
       <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>4300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1200</v>
+        <v>-14200</v>
       </c>
       <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,26 +1167,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3000</v>
-      </c>
       <c r="F26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F27" s="3">
-        <v>-6500</v>
+        <v>-2900</v>
       </c>
       <c r="G27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,26 +1423,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F33" s="3">
-        <v>-6500</v>
+        <v>-2900</v>
       </c>
       <c r="G33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F35" s="3">
-        <v>-6500</v>
+        <v>-2900</v>
       </c>
       <c r="G35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1618,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19400</v>
+        <v>8000</v>
       </c>
       <c r="E41" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,19 +1648,22 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8600</v>
+        <v>27800</v>
       </c>
       <c r="E42" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1590,19 +1680,22 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48400</v>
+        <v>58700</v>
       </c>
       <c r="E43" s="3">
-        <v>30900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>31100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,19 +1776,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79700</v>
+        <v>104000</v>
       </c>
       <c r="E46" s="3">
-        <v>54800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>80300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>55300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,19 +1808,22 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>2300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,19 +1872,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14200</v>
+        <v>35700</v>
       </c>
       <c r="E49" s="3">
-        <v>15300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15600</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113700</v>
+        <v>166100</v>
       </c>
       <c r="E54" s="3">
-        <v>82500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>114500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>83200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,19 +2094,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>35500</v>
+        <v>58600</v>
       </c>
       <c r="E57" s="3">
-        <v>19700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>35800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>19800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1993,19 +2124,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22000</v>
+        <v>15700</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>13700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2022,19 +2156,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11600</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2188,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69100</v>
+        <v>77300</v>
       </c>
       <c r="E60" s="3">
-        <v>42300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>69600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>42600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,20 +2220,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2380,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75200</v>
+        <v>91900</v>
       </c>
       <c r="E66" s="3">
-        <v>46000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>75800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>46400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2490,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>157500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>157500</v>
+        <v>158800</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>158800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,19 +2554,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-185200</v>
+        <v>-198500</v>
       </c>
       <c r="E72" s="3">
-        <v>-186300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-186700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-187700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2682,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-119100</v>
+        <v>74200</v>
       </c>
       <c r="E76" s="3">
-        <v>-121000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-120000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-122000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F81" s="3">
-        <v>-6500</v>
+        <v>-2900</v>
       </c>
       <c r="G81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,22 +2831,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
-        <v>1500</v>
-      </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,23 +3021,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,23 +3069,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,22 +3163,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-14400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-11900</v>
+        <v>-14500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,22 +3337,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>12300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
-        <v>12600</v>
-      </c>
       <c r="G100" s="3">
-        <v>15700</v>
+        <v>12700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3123,17 +3369,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3152,23 +3401,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>16700</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>1800</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>130300</v>
+        <v>173100</v>
       </c>
       <c r="E8" s="3">
-        <v>316600</v>
+        <v>155300</v>
       </c>
       <c r="F8" s="3">
-        <v>116800</v>
+        <v>132500</v>
       </c>
       <c r="G8" s="3">
-        <v>227000</v>
+        <v>85700</v>
       </c>
       <c r="H8" s="3">
-        <v>100500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>321900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>118800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>230800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -747,31 +755,37 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>133800</v>
+        <v>165200</v>
       </c>
       <c r="E9" s="3">
-        <v>291600</v>
+        <v>144000</v>
       </c>
       <c r="F9" s="3">
-        <v>105800</v>
+        <v>136000</v>
       </c>
       <c r="G9" s="3">
-        <v>209100</v>
+        <v>76300</v>
       </c>
       <c r="H9" s="3">
-        <v>92400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>296400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>107600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>212600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -779,31 +793,37 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-3400</v>
+        <v>7900</v>
       </c>
       <c r="E10" s="3">
-        <v>25000</v>
+        <v>11200</v>
       </c>
       <c r="F10" s="3">
-        <v>11000</v>
+        <v>-3500</v>
       </c>
       <c r="G10" s="3">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="H10" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -811,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1500</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
-        <v>500</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,31 +1016,33 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>141200</v>
+        <v>176100</v>
       </c>
       <c r="E17" s="3">
-        <v>318500</v>
+        <v>157600</v>
       </c>
       <c r="F17" s="3">
-        <v>120400</v>
+        <v>143600</v>
       </c>
       <c r="G17" s="3">
-        <v>235000</v>
+        <v>81100</v>
       </c>
       <c r="H17" s="3">
-        <v>99200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>323800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>122400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>239000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -996,31 +1050,37 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10900</v>
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1088,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,63 +1108,71 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3100</v>
+        <v>6200</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-4100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1106,63 +1180,75 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>900</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
-        <v>200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14200</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-6300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1170,40 +1256,52 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,31 +1332,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13100</v>
+        <v>3000</v>
       </c>
       <c r="E26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-6900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1266,31 +1370,37 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12400</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>-6700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1408,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,63 +1560,75 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3100</v>
+        <v>-6200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12400</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>-6700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1490,8 +1636,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,31 +1674,37 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12400</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>-6700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1554,45 +1712,57 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,25 +1791,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="F41" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>19800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1651,25 +1825,31 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27800</v>
+        <v>30900</v>
       </c>
       <c r="E42" s="3">
-        <v>8700</v>
+        <v>27200</v>
       </c>
       <c r="F42" s="3">
-        <v>15100</v>
+        <v>28200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>8800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1683,25 +1863,31 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58700</v>
+        <v>73300</v>
       </c>
       <c r="E43" s="3">
-        <v>48800</v>
+        <v>67400</v>
       </c>
       <c r="F43" s="3">
-        <v>31100</v>
+        <v>59600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>49600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1901,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,25 +1939,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>11400</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>8900</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>3400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1779,25 +1977,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104000</v>
+        <v>124600</v>
       </c>
       <c r="E46" s="3">
-        <v>80300</v>
+        <v>114000</v>
       </c>
       <c r="F46" s="3">
-        <v>55300</v>
+        <v>105700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>81600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1811,26 +2015,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,25 +2053,31 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8400</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
-        <v>3900</v>
+        <v>5300</v>
       </c>
       <c r="F48" s="3">
-        <v>1600</v>
+        <v>8600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>4000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1875,25 +2091,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35700</v>
+        <v>38800</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>38700</v>
       </c>
       <c r="F49" s="3">
-        <v>15400</v>
+        <v>36300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>14600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,25 +2205,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>24500</v>
       </c>
       <c r="E52" s="3">
-        <v>15700</v>
+        <v>22100</v>
       </c>
       <c r="F52" s="3">
-        <v>8600</v>
+        <v>18100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>16000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,25 +2281,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166100</v>
+        <v>192800</v>
       </c>
       <c r="E54" s="3">
-        <v>114500</v>
+        <v>180300</v>
       </c>
       <c r="F54" s="3">
-        <v>83200</v>
+        <v>168900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>116500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2067,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,25 +2355,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58600</v>
+        <v>70900</v>
       </c>
       <c r="E57" s="3">
-        <v>35800</v>
+        <v>66600</v>
       </c>
       <c r="F57" s="3">
-        <v>19800</v>
+        <v>59600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>36400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2127,25 +2389,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15700</v>
+        <v>22000</v>
       </c>
       <c r="E58" s="3">
         <v>22200</v>
       </c>
       <c r="F58" s="3">
-        <v>13700</v>
+        <v>16000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>22500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2159,25 +2427,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9100</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>11900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2191,25 +2465,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77300</v>
+        <v>96700</v>
       </c>
       <c r="E60" s="3">
-        <v>69600</v>
+        <v>89600</v>
       </c>
       <c r="F60" s="3">
-        <v>42600</v>
+        <v>78600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>70800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2223,25 +2503,31 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2255,25 +2541,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>7900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>4000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,25 +2693,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>91900</v>
+        <v>109700</v>
       </c>
       <c r="E66" s="3">
-        <v>75800</v>
+        <v>103100</v>
       </c>
       <c r="F66" s="3">
-        <v>46400</v>
+        <v>93400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>77100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2502,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>158800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>158800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>161400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,25 +2899,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198500</v>
+        <v>-202800</v>
       </c>
       <c r="E72" s="3">
-        <v>-186700</v>
+        <v>-206700</v>
       </c>
       <c r="F72" s="3">
-        <v>-187700</v>
+        <v>-201900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>-189800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2589,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +3051,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74200</v>
+        <v>83000</v>
       </c>
       <c r="E76" s="3">
-        <v>-120000</v>
+        <v>77300</v>
       </c>
       <c r="F76" s="3">
+        <v>75500</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>-122000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,68 +3127,80 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12400</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>-6700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3208,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,31 +3228,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3262,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,31 +3452,37 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3056,8 +3490,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3510,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3544,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,31 +3620,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-2600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3658,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,31 +3826,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3864,22 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3389,14 +3887,14 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3404,36 +3902,48 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>173100</v>
+        <v>174400</v>
       </c>
       <c r="E8" s="3">
-        <v>155300</v>
+        <v>156500</v>
       </c>
       <c r="F8" s="3">
-        <v>132500</v>
+        <v>133500</v>
       </c>
       <c r="G8" s="3">
-        <v>85700</v>
+        <v>86400</v>
       </c>
       <c r="H8" s="3">
-        <v>321900</v>
+        <v>324300</v>
       </c>
       <c r="I8" s="3">
-        <v>118800</v>
+        <v>119700</v>
       </c>
       <c r="J8" s="3">
-        <v>230800</v>
+        <v>232600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -767,25 +767,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>165200</v>
+        <v>166500</v>
       </c>
       <c r="E9" s="3">
-        <v>144000</v>
+        <v>145100</v>
       </c>
       <c r="F9" s="3">
-        <v>136000</v>
+        <v>137100</v>
       </c>
       <c r="G9" s="3">
-        <v>76300</v>
+        <v>76900</v>
       </c>
       <c r="H9" s="3">
-        <v>296400</v>
+        <v>298700</v>
       </c>
       <c r="I9" s="3">
-        <v>107600</v>
+        <v>108400</v>
       </c>
       <c r="J9" s="3">
-        <v>212600</v>
+        <v>214200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -808,7 +808,7 @@
         <v>7900</v>
       </c>
       <c r="E10" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="F10" s="3">
         <v>-3500</v>
@@ -817,13 +817,13 @@
         <v>9500</v>
       </c>
       <c r="H10" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I10" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="J10" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -877,7 +877,7 @@
         <v>700</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>176100</v>
+        <v>177400</v>
       </c>
       <c r="E17" s="3">
-        <v>157600</v>
+        <v>158800</v>
       </c>
       <c r="F17" s="3">
-        <v>143600</v>
+        <v>144700</v>
       </c>
       <c r="G17" s="3">
-        <v>81100</v>
+        <v>81700</v>
       </c>
       <c r="H17" s="3">
-        <v>323800</v>
+        <v>326300</v>
       </c>
       <c r="I17" s="3">
-        <v>122400</v>
+        <v>123300</v>
       </c>
       <c r="J17" s="3">
-        <v>239000</v>
+        <v>240800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1068,19 +1068,19 @@
         <v>-2300</v>
       </c>
       <c r="F18" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="G18" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H18" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I18" s="3">
         <v>-3600</v>
       </c>
       <c r="J18" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
@@ -1201,7 +1201,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
@@ -1233,10 +1233,10 @@
         <v>2900</v>
       </c>
       <c r="E23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="G23" s="3">
         <v>4900</v>
@@ -1248,7 +1248,7 @@
         <v>-1700</v>
       </c>
       <c r="J23" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1350,7 +1350,7 @@
         <v>-5400</v>
       </c>
       <c r="F26" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="G26" s="3">
         <v>3100</v>
@@ -1362,7 +1362,7 @@
         <v>-3100</v>
       </c>
       <c r="J26" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1385,16 +1385,16 @@
         <v>3900</v>
       </c>
       <c r="E27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F27" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I27" s="3">
         <v>-2900</v>
@@ -1613,16 +1613,16 @@
         <v>3900</v>
       </c>
       <c r="E33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F33" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I33" s="3">
         <v>-2900</v>
@@ -1689,16 +1689,16 @@
         <v>3900</v>
       </c>
       <c r="E35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F35" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I35" s="3">
         <v>-2900</v>
@@ -1802,16 +1802,16 @@
         <v>9000</v>
       </c>
       <c r="E41" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="F41" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
-        <v>19800</v>
+        <v>8200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1837,19 +1837,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30900</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="F42" s="3">
-        <v>28200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>8800</v>
+        <v>28400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1875,19 +1875,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="E43" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="F43" s="3">
-        <v>59600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>49600</v>
+        <v>60100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1951,19 +1951,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G45" s="3">
         <v>3400</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1989,19 +1989,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124600</v>
+        <v>125500</v>
       </c>
       <c r="E46" s="3">
-        <v>114000</v>
+        <v>114900</v>
       </c>
       <c r="F46" s="3">
-        <v>105700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3">
-        <v>81600</v>
+        <v>106500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>82300</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2035,11 +2035,11 @@
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2065,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3">
         <v>5300</v>
@@ -2073,11 +2073,11 @@
       <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2103,19 +2103,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38800</v>
+        <v>39100</v>
       </c>
       <c r="E49" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="F49" s="3">
-        <v>36300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3">
-        <v>14600</v>
+        <v>36600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2217,19 +2217,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="E52" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="F52" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>16000</v>
+        <v>18300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2293,19 +2293,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>192800</v>
+        <v>194200</v>
       </c>
       <c r="E54" s="3">
-        <v>180300</v>
+        <v>181700</v>
       </c>
       <c r="F54" s="3">
-        <v>168900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3">
-        <v>116500</v>
+        <v>170200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>117400</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>70900</v>
+        <v>71500</v>
       </c>
       <c r="E57" s="3">
-        <v>66600</v>
+        <v>67100</v>
       </c>
       <c r="F57" s="3">
-        <v>59600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
-        <v>36400</v>
+        <v>60000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>36600</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2401,19 +2401,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="E58" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="F58" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>22500</v>
+        <v>16100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2445,13 +2445,13 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
-        <v>11900</v>
+        <v>3100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2477,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96700</v>
+        <v>97500</v>
       </c>
       <c r="E60" s="3">
-        <v>89600</v>
+        <v>90200</v>
       </c>
       <c r="F60" s="3">
-        <v>78600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3">
-        <v>70800</v>
+        <v>79200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>71300</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2524,10 +2524,10 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H61" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2553,19 +2553,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F62" s="3">
         <v>7900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2705,19 +2705,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>109700</v>
+        <v>110600</v>
       </c>
       <c r="E66" s="3">
-        <v>103100</v>
+        <v>103900</v>
       </c>
       <c r="F66" s="3">
-        <v>93400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
-        <v>77100</v>
+        <v>94100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>77700</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>162700</v>
       </c>
       <c r="H70" s="3">
-        <v>161400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2911,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-202800</v>
+        <v>-204400</v>
       </c>
       <c r="E72" s="3">
-        <v>-206700</v>
+        <v>-208300</v>
       </c>
       <c r="F72" s="3">
-        <v>-201900</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-189800</v>
+        <v>-203400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-191200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3063,19 +3063,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83000</v>
+        <v>83700</v>
       </c>
       <c r="E76" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="F76" s="3">
-        <v>75500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-122000</v>
+        <v>76000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3185,16 +3185,16 @@
         <v>3900</v>
       </c>
       <c r="E81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F81" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I81" s="3">
         <v>-2900</v>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>174400</v>
+        <v>162900</v>
       </c>
       <c r="E8" s="3">
-        <v>156500</v>
+        <v>146200</v>
       </c>
       <c r="F8" s="3">
-        <v>133500</v>
+        <v>124700</v>
       </c>
       <c r="G8" s="3">
-        <v>86400</v>
+        <v>80700</v>
       </c>
       <c r="H8" s="3">
-        <v>324300</v>
+        <v>302900</v>
       </c>
       <c r="I8" s="3">
-        <v>119700</v>
+        <v>111800</v>
       </c>
       <c r="J8" s="3">
-        <v>232600</v>
+        <v>217300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -767,25 +767,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>166500</v>
+        <v>155500</v>
       </c>
       <c r="E9" s="3">
-        <v>145100</v>
+        <v>135600</v>
       </c>
       <c r="F9" s="3">
-        <v>137100</v>
+        <v>128000</v>
       </c>
       <c r="G9" s="3">
-        <v>76900</v>
+        <v>71800</v>
       </c>
       <c r="H9" s="3">
-        <v>298700</v>
+        <v>279000</v>
       </c>
       <c r="I9" s="3">
-        <v>108400</v>
+        <v>101300</v>
       </c>
       <c r="J9" s="3">
-        <v>214200</v>
+        <v>200100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -805,25 +805,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E10" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="F10" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="G10" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="H10" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="I10" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="J10" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -859,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
@@ -871,13 +871,13 @@
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177400</v>
+        <v>165700</v>
       </c>
       <c r="E17" s="3">
-        <v>158800</v>
+        <v>148300</v>
       </c>
       <c r="F17" s="3">
-        <v>144700</v>
+        <v>135200</v>
       </c>
       <c r="G17" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="H17" s="3">
-        <v>326300</v>
+        <v>304800</v>
       </c>
       <c r="I17" s="3">
-        <v>123300</v>
+        <v>115200</v>
       </c>
       <c r="J17" s="3">
-        <v>240800</v>
+        <v>224900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1062,25 +1062,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F18" s="3">
-        <v>-11200</v>
+        <v>-10400</v>
       </c>
       <c r="G18" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H18" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="I18" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="J18" s="3">
-        <v>-8200</v>
+        <v>-7600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="F23" s="3">
-        <v>-14600</v>
+        <v>-13600</v>
       </c>
       <c r="G23" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I23" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-6400</v>
+        <v>-5900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1271,19 +1271,19 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1344,25 +1344,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F26" s="3">
-        <v>-13400</v>
+        <v>-12500</v>
       </c>
       <c r="G26" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="J26" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1382,25 +1382,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="F27" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="G27" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J27" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1572,25 +1572,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1610,25 +1610,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="F33" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="G33" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I33" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J33" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1686,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="F35" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="G35" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I35" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J35" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1799,16 +1799,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="E41" s="3">
-        <v>10600</v>
+        <v>9900</v>
       </c>
       <c r="F41" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G41" s="3">
-        <v>20000</v>
+        <v>18700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1837,16 +1837,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>29100</v>
       </c>
       <c r="E42" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="F42" s="3">
-        <v>28400</v>
+        <v>26600</v>
       </c>
       <c r="G42" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1875,16 +1875,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73900</v>
+        <v>69000</v>
       </c>
       <c r="E43" s="3">
-        <v>67900</v>
+        <v>63400</v>
       </c>
       <c r="F43" s="3">
-        <v>60100</v>
+        <v>56100</v>
       </c>
       <c r="G43" s="3">
-        <v>50000</v>
+        <v>46700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1951,16 +1951,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="E45" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1989,16 +1989,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125500</v>
+        <v>117300</v>
       </c>
       <c r="E46" s="3">
-        <v>114900</v>
+        <v>107300</v>
       </c>
       <c r="F46" s="3">
-        <v>106500</v>
+        <v>99500</v>
       </c>
       <c r="G46" s="3">
-        <v>82300</v>
+        <v>76800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2065,16 +2065,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E48" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F48" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2103,16 +2103,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="E49" s="3">
-        <v>39000</v>
+        <v>36500</v>
       </c>
       <c r="F49" s="3">
-        <v>36600</v>
+        <v>34200</v>
       </c>
       <c r="G49" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="E52" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="F52" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2293,16 +2293,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194200</v>
+        <v>181400</v>
       </c>
       <c r="E54" s="3">
-        <v>181700</v>
+        <v>169700</v>
       </c>
       <c r="F54" s="3">
-        <v>170200</v>
+        <v>159000</v>
       </c>
       <c r="G54" s="3">
-        <v>117400</v>
+        <v>109600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2363,16 +2363,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>71500</v>
+        <v>66800</v>
       </c>
       <c r="E57" s="3">
-        <v>67100</v>
+        <v>62700</v>
       </c>
       <c r="F57" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="G57" s="3">
-        <v>36600</v>
+        <v>34200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2401,16 +2401,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>22300</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="3">
-        <v>22700</v>
+        <v>21200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2439,16 +2439,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G59" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2477,16 +2477,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>97500</v>
+        <v>91100</v>
       </c>
       <c r="E60" s="3">
-        <v>90200</v>
+        <v>84300</v>
       </c>
       <c r="F60" s="3">
-        <v>79200</v>
+        <v>74000</v>
       </c>
       <c r="G60" s="3">
-        <v>71300</v>
+        <v>66600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2524,7 +2524,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2553,16 +2553,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="F62" s="3">
-        <v>7900</v>
-      </c>
       <c r="G62" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2705,16 +2705,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110600</v>
+        <v>103300</v>
       </c>
       <c r="E66" s="3">
-        <v>103900</v>
+        <v>97000</v>
       </c>
       <c r="F66" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="G66" s="3">
-        <v>77700</v>
+        <v>72500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>162700</v>
+        <v>151900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-204400</v>
+        <v>-190900</v>
       </c>
       <c r="E72" s="3">
-        <v>-208300</v>
+        <v>-194600</v>
       </c>
       <c r="F72" s="3">
-        <v>-203400</v>
+        <v>-190000</v>
       </c>
       <c r="G72" s="3">
-        <v>-191200</v>
+        <v>-178600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3063,16 +3063,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83700</v>
+        <v>78100</v>
       </c>
       <c r="E76" s="3">
-        <v>77900</v>
+        <v>72700</v>
       </c>
       <c r="F76" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
       <c r="G76" s="3">
-        <v>-122900</v>
+        <v>-114800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3182,25 +3182,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="F81" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="G81" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I81" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J81" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>162900</v>
+        <v>161400</v>
       </c>
       <c r="E8" s="3">
-        <v>146200</v>
+        <v>144800</v>
       </c>
       <c r="F8" s="3">
-        <v>124700</v>
+        <v>123600</v>
       </c>
       <c r="G8" s="3">
-        <v>80700</v>
+        <v>80000</v>
       </c>
       <c r="H8" s="3">
-        <v>302900</v>
+        <v>300200</v>
       </c>
       <c r="I8" s="3">
-        <v>111800</v>
+        <v>110800</v>
       </c>
       <c r="J8" s="3">
-        <v>217300</v>
+        <v>215300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -767,25 +767,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>155500</v>
+        <v>154100</v>
       </c>
       <c r="E9" s="3">
-        <v>135600</v>
+        <v>134400</v>
       </c>
       <c r="F9" s="3">
-        <v>128000</v>
+        <v>126900</v>
       </c>
       <c r="G9" s="3">
-        <v>71800</v>
+        <v>71100</v>
       </c>
       <c r="H9" s="3">
-        <v>279000</v>
+        <v>276500</v>
       </c>
       <c r="I9" s="3">
-        <v>101300</v>
+        <v>100300</v>
       </c>
       <c r="J9" s="3">
-        <v>200100</v>
+        <v>198300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -808,22 +808,22 @@
         <v>7400</v>
       </c>
       <c r="E10" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F10" s="3">
         <v>-3300</v>
       </c>
       <c r="G10" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H10" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="I10" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J10" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>165700</v>
+        <v>164300</v>
       </c>
       <c r="E17" s="3">
-        <v>148300</v>
+        <v>147000</v>
       </c>
       <c r="F17" s="3">
-        <v>135200</v>
+        <v>134000</v>
       </c>
       <c r="G17" s="3">
-        <v>76300</v>
+        <v>75600</v>
       </c>
       <c r="H17" s="3">
-        <v>304800</v>
+        <v>302000</v>
       </c>
       <c r="I17" s="3">
-        <v>115200</v>
+        <v>114200</v>
       </c>
       <c r="J17" s="3">
-        <v>224900</v>
+        <v>222900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1068,10 +1068,10 @@
         <v>-2200</v>
       </c>
       <c r="F18" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G18" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H18" s="3">
         <v>-1800</v>
@@ -1116,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
@@ -1166,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1236,7 +1236,7 @@
         <v>-3400</v>
       </c>
       <c r="F23" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="G23" s="3">
         <v>4600</v>
@@ -1271,7 +1271,7 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
         <v>-1100</v>
@@ -1347,10 +1347,10 @@
         <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F26" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="G26" s="3">
         <v>2900</v>
@@ -1382,13 +1382,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E27" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="G27" s="3">
         <v>3000</v>
@@ -1400,7 +1400,7 @@
         <v>-2700</v>
       </c>
       <c r="J27" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1572,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
@@ -1610,13 +1610,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E33" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="G33" s="3">
         <v>3000</v>
@@ -1628,7 +1628,7 @@
         <v>-2700</v>
       </c>
       <c r="J33" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E35" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="G35" s="3">
         <v>3000</v>
@@ -1704,7 +1704,7 @@
         <v>-2700</v>
       </c>
       <c r="J35" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1802,13 +1802,13 @@
         <v>8400</v>
       </c>
       <c r="E41" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F41" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G41" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1837,16 +1837,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29100</v>
+        <v>28900</v>
       </c>
       <c r="E42" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="F42" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="G42" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1875,16 +1875,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="E43" s="3">
-        <v>63400</v>
+        <v>62900</v>
       </c>
       <c r="F43" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="G43" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1951,13 +1951,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="E45" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="G45" s="3">
         <v>3200</v>
@@ -1989,16 +1989,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117300</v>
+        <v>116200</v>
       </c>
       <c r="E46" s="3">
-        <v>107300</v>
+        <v>106300</v>
       </c>
       <c r="F46" s="3">
-        <v>99500</v>
+        <v>98600</v>
       </c>
       <c r="G46" s="3">
-        <v>76800</v>
+        <v>76200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2068,13 +2068,13 @@
         <v>3600</v>
       </c>
       <c r="E48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2103,16 +2103,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="E49" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="F49" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="G49" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="E52" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2293,16 +2293,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181400</v>
+        <v>179800</v>
       </c>
       <c r="E54" s="3">
-        <v>169700</v>
+        <v>168200</v>
       </c>
       <c r="F54" s="3">
-        <v>159000</v>
+        <v>157500</v>
       </c>
       <c r="G54" s="3">
-        <v>109600</v>
+        <v>108600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2363,16 +2363,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66800</v>
+        <v>66200</v>
       </c>
       <c r="E57" s="3">
-        <v>62700</v>
+        <v>62100</v>
       </c>
       <c r="F57" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="G57" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2401,16 +2401,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20700</v>
       </c>
-      <c r="E58" s="3">
-        <v>20900</v>
-      </c>
       <c r="F58" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="G58" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2439,16 +2439,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G59" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2477,16 +2477,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>91100</v>
+        <v>90200</v>
       </c>
       <c r="E60" s="3">
-        <v>84300</v>
+        <v>83500</v>
       </c>
       <c r="F60" s="3">
-        <v>74000</v>
+        <v>73300</v>
       </c>
       <c r="G60" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2521,10 +2521,10 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F62" s="3">
         <v>7400</v>
@@ -2705,16 +2705,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103300</v>
+        <v>102400</v>
       </c>
       <c r="E66" s="3">
-        <v>97000</v>
+        <v>96100</v>
       </c>
       <c r="F66" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="G66" s="3">
-        <v>72500</v>
+        <v>71900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>151900</v>
+        <v>150600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2911,16 +2911,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-190900</v>
+        <v>-189200</v>
       </c>
       <c r="E72" s="3">
-        <v>-194600</v>
+        <v>-192800</v>
       </c>
       <c r="F72" s="3">
-        <v>-190000</v>
+        <v>-188300</v>
       </c>
       <c r="G72" s="3">
-        <v>-178600</v>
+        <v>-177000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3063,16 +3063,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78100</v>
+        <v>77400</v>
       </c>
       <c r="E76" s="3">
-        <v>72700</v>
+        <v>72100</v>
       </c>
       <c r="F76" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="G76" s="3">
-        <v>-114800</v>
+        <v>-113800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3182,13 +3182,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E81" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="G81" s="3">
         <v>3000</v>
@@ -3200,7 +3200,7 @@
         <v>-2700</v>
       </c>
       <c r="J81" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,55 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,35 +723,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>161400</v>
+        <v>150500</v>
       </c>
       <c r="E8" s="3">
-        <v>144800</v>
+        <v>153900</v>
       </c>
       <c r="F8" s="3">
-        <v>123600</v>
+        <v>138100</v>
       </c>
       <c r="G8" s="3">
-        <v>80000</v>
+        <v>117800</v>
       </c>
       <c r="H8" s="3">
-        <v>300200</v>
+        <v>76200</v>
       </c>
       <c r="I8" s="3">
-        <v>110800</v>
+        <v>286200</v>
       </c>
       <c r="J8" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K8" s="3">
         <v>215300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,35 +764,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>154100</v>
+        <v>140000</v>
       </c>
       <c r="E9" s="3">
-        <v>134400</v>
+        <v>146900</v>
       </c>
       <c r="F9" s="3">
-        <v>126900</v>
+        <v>128100</v>
       </c>
       <c r="G9" s="3">
-        <v>71100</v>
+        <v>120900</v>
       </c>
       <c r="H9" s="3">
-        <v>276500</v>
+        <v>67800</v>
       </c>
       <c r="I9" s="3">
-        <v>100300</v>
+        <v>263600</v>
       </c>
       <c r="J9" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K9" s="3">
         <v>198300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7400</v>
+        <v>10500</v>
       </c>
       <c r="E10" s="3">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="F10" s="3">
-        <v>-3300</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="3">
-        <v>8800</v>
+        <v>-3100</v>
       </c>
       <c r="H10" s="3">
-        <v>23700</v>
+        <v>8400</v>
       </c>
       <c r="I10" s="3">
-        <v>10500</v>
+        <v>22600</v>
       </c>
       <c r="J10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="3">
         <v>17000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
-        <v>700</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,31 +945,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164300</v>
+        <v>155400</v>
       </c>
       <c r="E17" s="3">
-        <v>147000</v>
+        <v>156600</v>
       </c>
       <c r="F17" s="3">
-        <v>134000</v>
+        <v>140100</v>
       </c>
       <c r="G17" s="3">
-        <v>75600</v>
+        <v>127700</v>
       </c>
       <c r="H17" s="3">
-        <v>302000</v>
+        <v>72100</v>
       </c>
       <c r="I17" s="3">
-        <v>114200</v>
+        <v>287900</v>
       </c>
       <c r="J17" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K17" s="3">
         <v>222900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2800</v>
+        <v>-4900</v>
       </c>
       <c r="E18" s="3">
-        <v>-2200</v>
+        <v>-2700</v>
       </c>
       <c r="F18" s="3">
-        <v>-10300</v>
+        <v>-2100</v>
       </c>
       <c r="G18" s="3">
-        <v>4300</v>
+        <v>-9900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1800</v>
+        <v>4100</v>
       </c>
       <c r="I18" s="3">
-        <v>-3400</v>
+        <v>-1700</v>
       </c>
       <c r="J18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>-6200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
-        <v>600</v>
+        <v>-2800</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,18 +1201,18 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>4100</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,26 +1234,26 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>900</v>
-      </c>
       <c r="I22" s="3">
+        <v>800</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2700</v>
+        <v>-11400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3400</v>
+        <v>2500</v>
       </c>
       <c r="F23" s="3">
-        <v>-13500</v>
+        <v>-3200</v>
       </c>
       <c r="G23" s="3">
-        <v>4600</v>
+        <v>-12900</v>
       </c>
       <c r="H23" s="3">
-        <v>1200</v>
+        <v>4300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1600</v>
+        <v>1100</v>
       </c>
       <c r="J23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,35 +1304,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>-1000</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="I24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>-12600</v>
       </c>
       <c r="E26" s="3">
-        <v>-5000</v>
+        <v>2700</v>
       </c>
       <c r="F26" s="3">
-        <v>-12400</v>
+        <v>-4800</v>
       </c>
       <c r="G26" s="3">
-        <v>2900</v>
+        <v>-11800</v>
       </c>
       <c r="H26" s="3">
-        <v>-2000</v>
+        <v>2700</v>
       </c>
       <c r="I26" s="3">
-        <v>-2900</v>
+        <v>-1900</v>
       </c>
       <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3600</v>
+        <v>-9900</v>
       </c>
       <c r="E27" s="3">
-        <v>-4500</v>
+        <v>3500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11800</v>
+        <v>-4300</v>
       </c>
       <c r="G27" s="3">
-        <v>3000</v>
+        <v>-11200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1700</v>
+        <v>2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="J27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>6200</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
-        <v>-600</v>
+        <v>2800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2100</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3600</v>
+        <v>-9900</v>
       </c>
       <c r="E33" s="3">
-        <v>-4500</v>
+        <v>3500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11800</v>
+        <v>-4300</v>
       </c>
       <c r="G33" s="3">
-        <v>3000</v>
+        <v>-11200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1700</v>
+        <v>2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="J33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3600</v>
+        <v>-9900</v>
       </c>
       <c r="E35" s="3">
-        <v>-4500</v>
+        <v>3500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11800</v>
+        <v>-4300</v>
       </c>
       <c r="G35" s="3">
-        <v>3000</v>
+        <v>-11200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1700</v>
+        <v>2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="J35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,25 +1878,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8400</v>
+        <v>4000</v>
       </c>
       <c r="E41" s="3">
-        <v>9800</v>
+        <v>8000</v>
       </c>
       <c r="F41" s="3">
-        <v>7600</v>
+        <v>9400</v>
       </c>
       <c r="G41" s="3">
-        <v>18500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>17600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1831,25 +1917,28 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28900</v>
+        <v>24900</v>
       </c>
       <c r="E42" s="3">
-        <v>25300</v>
+        <v>27500</v>
       </c>
       <c r="F42" s="3">
-        <v>26300</v>
+        <v>24200</v>
       </c>
       <c r="G42" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1869,25 +1958,28 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68400</v>
+        <v>74800</v>
       </c>
       <c r="E43" s="3">
-        <v>62900</v>
+        <v>65200</v>
       </c>
       <c r="F43" s="3">
-        <v>55600</v>
+        <v>59900</v>
       </c>
       <c r="G43" s="3">
-        <v>46300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>53000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>44100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1907,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,25 +2040,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>9100</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1983,25 +2081,28 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>116200</v>
+        <v>106800</v>
       </c>
       <c r="E46" s="3">
-        <v>106300</v>
+        <v>110800</v>
       </c>
       <c r="F46" s="3">
-        <v>98600</v>
+        <v>101300</v>
       </c>
       <c r="G46" s="3">
-        <v>76200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>94000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>72600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2021,26 +2122,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
-        <v>200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,26 +2163,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,25 +2204,28 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36200</v>
+        <v>26600</v>
       </c>
       <c r="E49" s="3">
-        <v>36100</v>
+        <v>34500</v>
       </c>
       <c r="F49" s="3">
-        <v>33900</v>
+        <v>34400</v>
       </c>
       <c r="G49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>32300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>13000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,25 +2327,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22900</v>
+        <v>22000</v>
       </c>
       <c r="E52" s="3">
-        <v>20600</v>
+        <v>21800</v>
       </c>
       <c r="F52" s="3">
-        <v>16900</v>
+        <v>19700</v>
       </c>
       <c r="G52" s="3">
-        <v>14900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,25 +2409,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179800</v>
+        <v>159400</v>
       </c>
       <c r="E54" s="3">
-        <v>168200</v>
+        <v>171400</v>
       </c>
       <c r="F54" s="3">
-        <v>157500</v>
+        <v>160300</v>
       </c>
       <c r="G54" s="3">
-        <v>108600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>150200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>103600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,25 +2486,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66200</v>
+        <v>46500</v>
       </c>
       <c r="E57" s="3">
-        <v>62100</v>
+        <v>63100</v>
       </c>
       <c r="F57" s="3">
-        <v>55600</v>
+        <v>59200</v>
       </c>
       <c r="G57" s="3">
-        <v>33900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>53000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>32300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2395,25 +2525,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>20700</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>14900</v>
+        <v>19700</v>
       </c>
       <c r="G58" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2433,25 +2566,28 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3500</v>
+        <v>17600</v>
       </c>
       <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
-        <v>2800</v>
-      </c>
       <c r="G59" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2471,25 +2607,28 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90200</v>
+        <v>84800</v>
       </c>
       <c r="E60" s="3">
-        <v>83500</v>
+        <v>86000</v>
       </c>
       <c r="F60" s="3">
-        <v>73300</v>
+        <v>79600</v>
       </c>
       <c r="G60" s="3">
-        <v>66000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>69900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>62900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2509,26 +2648,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,16 +2701,16 @@
         <v>7400</v>
       </c>
       <c r="E62" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>6500</v>
       </c>
       <c r="G62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,25 +2853,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102400</v>
+        <v>93900</v>
       </c>
       <c r="E66" s="3">
-        <v>96100</v>
+        <v>97600</v>
       </c>
       <c r="F66" s="3">
-        <v>87100</v>
+        <v>91600</v>
       </c>
       <c r="G66" s="3">
-        <v>71900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>83100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>68500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>150600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>143500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,25 +3075,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-189200</v>
+        <v>-190200</v>
       </c>
       <c r="E72" s="3">
-        <v>-192800</v>
+        <v>-180300</v>
       </c>
       <c r="F72" s="3">
-        <v>-188300</v>
+        <v>-183800</v>
       </c>
       <c r="G72" s="3">
-        <v>-177000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-179500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-168700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,25 +3239,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77400</v>
+        <v>65600</v>
       </c>
       <c r="E76" s="3">
-        <v>72100</v>
+        <v>73800</v>
       </c>
       <c r="F76" s="3">
-        <v>70400</v>
+        <v>68700</v>
       </c>
       <c r="G76" s="3">
-        <v>-113800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>67100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-108500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3600</v>
+        <v>-9900</v>
       </c>
       <c r="E81" s="3">
-        <v>-4500</v>
+        <v>3500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11800</v>
+        <v>-4300</v>
       </c>
       <c r="G81" s="3">
-        <v>3000</v>
+        <v>-11200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1700</v>
+        <v>2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-2700</v>
+        <v>-1600</v>
       </c>
       <c r="J81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3256,8 +3454,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3671,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3484,8 +3700,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3538,8 +3758,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3652,8 +3881,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3858,8 +4103,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3870,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3896,8 +4144,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3908,8 +4156,11 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3934,8 +4185,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3944,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,38 +727,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>150500</v>
+        <v>267700</v>
       </c>
       <c r="E8" s="3">
-        <v>153900</v>
+        <v>155300</v>
       </c>
       <c r="F8" s="3">
-        <v>138100</v>
+        <v>158800</v>
       </c>
       <c r="G8" s="3">
-        <v>117800</v>
+        <v>142400</v>
       </c>
       <c r="H8" s="3">
-        <v>76200</v>
+        <v>121600</v>
       </c>
       <c r="I8" s="3">
-        <v>286200</v>
+        <v>78600</v>
       </c>
       <c r="J8" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K8" s="3">
         <v>105600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,38 +771,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>140000</v>
+        <v>254200</v>
       </c>
       <c r="E9" s="3">
-        <v>146900</v>
+        <v>144400</v>
       </c>
       <c r="F9" s="3">
-        <v>128100</v>
+        <v>151500</v>
       </c>
       <c r="G9" s="3">
-        <v>120900</v>
+        <v>132100</v>
       </c>
       <c r="H9" s="3">
-        <v>67800</v>
+        <v>124800</v>
       </c>
       <c r="I9" s="3">
-        <v>263600</v>
+        <v>70000</v>
       </c>
       <c r="J9" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K9" s="3">
         <v>95600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>198300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +815,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="E10" s="3">
-        <v>7000</v>
+        <v>10900</v>
       </c>
       <c r="F10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>22600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
-        <v>900</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>600</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,16 +965,19 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -974,8 +994,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>155400</v>
+        <v>268800</v>
       </c>
       <c r="E17" s="3">
-        <v>156600</v>
+        <v>160300</v>
       </c>
       <c r="F17" s="3">
-        <v>140100</v>
+        <v>161500</v>
       </c>
       <c r="G17" s="3">
-        <v>127700</v>
+        <v>144600</v>
       </c>
       <c r="H17" s="3">
-        <v>72100</v>
+        <v>131700</v>
       </c>
       <c r="I17" s="3">
-        <v>287900</v>
+        <v>74400</v>
       </c>
       <c r="J17" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K17" s="3">
         <v>108800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>222900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,38 +1112,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4900</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-2700</v>
+        <v>-5000</v>
       </c>
       <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H18" s="3">
-        <v>4100</v>
+        <v>-10200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1700</v>
+        <v>4300</v>
       </c>
       <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,38 +1176,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6200</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>-6400</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2800</v>
+        <v>-1000</v>
       </c>
       <c r="H20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>3700</v>
-      </c>
       <c r="J20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1204,18 +1241,18 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>3900</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,38 +1262,41 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>800</v>
-      </c>
       <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,38 +1306,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11400</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
-        <v>2500</v>
+        <v>-11700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3200</v>
+        <v>2600</v>
       </c>
       <c r="G23" s="3">
-        <v>-12900</v>
+        <v>-3300</v>
       </c>
       <c r="H23" s="3">
-        <v>4300</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="J23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,38 +1350,41 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>-1100</v>
       </c>
       <c r="I24" s="3">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="J24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12600</v>
+        <v>-3800</v>
       </c>
       <c r="E26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4800</v>
-      </c>
       <c r="G26" s="3">
-        <v>-11800</v>
+        <v>-4900</v>
       </c>
       <c r="H26" s="3">
-        <v>2700</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9900</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
-        <v>3500</v>
+        <v>-10200</v>
       </c>
       <c r="F27" s="3">
-        <v>-4300</v>
+        <v>3600</v>
       </c>
       <c r="G27" s="3">
-        <v>-11200</v>
+        <v>-4400</v>
       </c>
       <c r="H27" s="3">
-        <v>2900</v>
+        <v>-11600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>3000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,38 +1702,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6200</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>6400</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9900</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
-        <v>3500</v>
+        <v>-10200</v>
       </c>
       <c r="F33" s="3">
-        <v>-4300</v>
+        <v>3600</v>
       </c>
       <c r="G33" s="3">
-        <v>-11200</v>
+        <v>-4400</v>
       </c>
       <c r="H33" s="3">
-        <v>2900</v>
+        <v>-11600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>3000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9900</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
-        <v>3500</v>
+        <v>-10200</v>
       </c>
       <c r="F35" s="3">
-        <v>-4300</v>
+        <v>3600</v>
       </c>
       <c r="G35" s="3">
-        <v>-11200</v>
+        <v>-4400</v>
       </c>
       <c r="H35" s="3">
-        <v>2900</v>
+        <v>-11600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>3000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,28 +1965,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="E41" s="3">
-        <v>8000</v>
+        <v>4100</v>
       </c>
       <c r="F41" s="3">
-        <v>9400</v>
+        <v>8200</v>
       </c>
       <c r="G41" s="3">
-        <v>7200</v>
+        <v>9700</v>
       </c>
       <c r="H41" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>18200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1920,28 +2007,31 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G42" s="3">
         <v>24900</v>
       </c>
-      <c r="E42" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>25100</v>
-      </c>
       <c r="H42" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>25900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1961,28 +2051,31 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74800</v>
+        <v>68900</v>
       </c>
       <c r="E43" s="3">
-        <v>65200</v>
+        <v>77200</v>
       </c>
       <c r="F43" s="3">
-        <v>59900</v>
+        <v>67200</v>
       </c>
       <c r="G43" s="3">
-        <v>53000</v>
+        <v>61800</v>
       </c>
       <c r="H43" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>54700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,28 +2183,31 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>106800</v>
+        <v>98300</v>
       </c>
       <c r="E46" s="3">
-        <v>110800</v>
+        <v>110200</v>
       </c>
       <c r="F46" s="3">
-        <v>101300</v>
+        <v>114300</v>
       </c>
       <c r="G46" s="3">
-        <v>94000</v>
+        <v>104600</v>
       </c>
       <c r="H46" s="3">
-        <v>72600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>97000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>74900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2125,28 +2227,31 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>800</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2166,28 +2271,31 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="G48" s="3">
-        <v>7600</v>
+        <v>4900</v>
       </c>
       <c r="H48" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2207,28 +2315,31 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="E49" s="3">
-        <v>34500</v>
+        <v>27400</v>
       </c>
       <c r="F49" s="3">
-        <v>34400</v>
+        <v>35600</v>
       </c>
       <c r="G49" s="3">
-        <v>32300</v>
+        <v>35500</v>
       </c>
       <c r="H49" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>33300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>13400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,28 +2447,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
       <c r="E52" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="F52" s="3">
-        <v>19700</v>
+        <v>22500</v>
       </c>
       <c r="G52" s="3">
-        <v>16100</v>
+        <v>20300</v>
       </c>
       <c r="H52" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>16600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,28 +2535,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159400</v>
+        <v>150500</v>
       </c>
       <c r="E54" s="3">
-        <v>171400</v>
+        <v>164500</v>
       </c>
       <c r="F54" s="3">
-        <v>160300</v>
+        <v>176800</v>
       </c>
       <c r="G54" s="3">
-        <v>150200</v>
+        <v>165400</v>
       </c>
       <c r="H54" s="3">
-        <v>103600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>154900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>106800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,28 +2617,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46500</v>
+        <v>58200</v>
       </c>
       <c r="E57" s="3">
-        <v>63100</v>
+        <v>48000</v>
       </c>
       <c r="F57" s="3">
-        <v>59200</v>
+        <v>65100</v>
       </c>
       <c r="G57" s="3">
-        <v>53000</v>
+        <v>61100</v>
       </c>
       <c r="H57" s="3">
-        <v>32300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>54600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>33400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2528,29 +2659,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I58" s="3">
         <v>20700</v>
       </c>
-      <c r="E58" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>14200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,28 +2703,31 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>3400</v>
+        <v>18200</v>
       </c>
       <c r="F59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
-        <v>2700</v>
-      </c>
       <c r="H59" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>10900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2610,28 +2747,31 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84800</v>
+        <v>74300</v>
       </c>
       <c r="E60" s="3">
-        <v>86000</v>
+        <v>87500</v>
       </c>
       <c r="F60" s="3">
-        <v>79600</v>
+        <v>88700</v>
       </c>
       <c r="G60" s="3">
-        <v>69900</v>
+        <v>82200</v>
       </c>
       <c r="H60" s="3">
-        <v>62900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>72100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>64900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2660,20 +2803,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,28 +2835,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="F62" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="G62" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="H62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,28 +3011,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93900</v>
+        <v>83900</v>
       </c>
       <c r="E66" s="3">
-        <v>97600</v>
+        <v>96900</v>
       </c>
       <c r="F66" s="3">
-        <v>91600</v>
+        <v>100700</v>
       </c>
       <c r="G66" s="3">
-        <v>83100</v>
+        <v>94500</v>
       </c>
       <c r="H66" s="3">
-        <v>68500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>85700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>70700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>143500</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>148100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,28 +3249,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-190200</v>
+        <v>-199900</v>
       </c>
       <c r="E72" s="3">
-        <v>-180300</v>
+        <v>-196300</v>
       </c>
       <c r="F72" s="3">
-        <v>-183800</v>
+        <v>-186000</v>
       </c>
       <c r="G72" s="3">
-        <v>-179500</v>
+        <v>-189600</v>
       </c>
       <c r="H72" s="3">
-        <v>-168700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-185200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-174100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,28 +3425,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65600</v>
+        <v>66600</v>
       </c>
       <c r="E76" s="3">
-        <v>73800</v>
+        <v>67600</v>
       </c>
       <c r="F76" s="3">
-        <v>68700</v>
+        <v>76200</v>
       </c>
       <c r="G76" s="3">
-        <v>67100</v>
+        <v>70900</v>
       </c>
       <c r="H76" s="3">
-        <v>-108500</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>69200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-111900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9900</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
-        <v>3500</v>
+        <v>-10200</v>
       </c>
       <c r="F81" s="3">
-        <v>-4300</v>
+        <v>3600</v>
       </c>
       <c r="G81" s="3">
-        <v>-11200</v>
+        <v>-4400</v>
       </c>
       <c r="H81" s="3">
-        <v>2900</v>
+        <v>-11600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>3000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,8 +3656,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +3888,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3703,8 +3920,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3761,8 +3982,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3884,8 +4114,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4106,8 +4352,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4147,8 +4396,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4159,8 +4408,11 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4188,8 +4440,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,63 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,41 +731,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>267700</v>
+        <v>278100</v>
       </c>
       <c r="E8" s="3">
-        <v>155300</v>
+        <v>264900</v>
       </c>
       <c r="F8" s="3">
-        <v>158800</v>
+        <v>153700</v>
       </c>
       <c r="G8" s="3">
-        <v>142400</v>
+        <v>157100</v>
       </c>
       <c r="H8" s="3">
-        <v>121600</v>
+        <v>141000</v>
       </c>
       <c r="I8" s="3">
-        <v>78600</v>
+        <v>120300</v>
       </c>
       <c r="J8" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K8" s="3">
         <v>295300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>105600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>215300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,41 +778,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>254200</v>
+        <v>255600</v>
       </c>
       <c r="E9" s="3">
-        <v>144400</v>
+        <v>251600</v>
       </c>
       <c r="F9" s="3">
-        <v>151500</v>
+        <v>143000</v>
       </c>
       <c r="G9" s="3">
-        <v>132100</v>
+        <v>150000</v>
       </c>
       <c r="H9" s="3">
-        <v>124800</v>
+        <v>130800</v>
       </c>
       <c r="I9" s="3">
-        <v>70000</v>
+        <v>123500</v>
       </c>
       <c r="J9" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K9" s="3">
         <v>271900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>198300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,41 +825,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13500</v>
+        <v>22600</v>
       </c>
       <c r="E10" s="3">
-        <v>10900</v>
+        <v>13400</v>
       </c>
       <c r="F10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G10" s="3">
         <v>7200</v>
       </c>
-      <c r="G10" s="3">
-        <v>10300</v>
-      </c>
       <c r="H10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I10" s="3">
         <v>-3200</v>
       </c>
-      <c r="I10" s="3">
-        <v>8700</v>
-      </c>
       <c r="J10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,41 +893,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,19 +985,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -997,8 +1017,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1097,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>268800</v>
+        <v>271900</v>
       </c>
       <c r="E17" s="3">
-        <v>160300</v>
+        <v>266100</v>
       </c>
       <c r="F17" s="3">
-        <v>161500</v>
+        <v>158700</v>
       </c>
       <c r="G17" s="3">
-        <v>144600</v>
+        <v>159900</v>
       </c>
       <c r="H17" s="3">
-        <v>131700</v>
+        <v>143100</v>
       </c>
       <c r="I17" s="3">
-        <v>74400</v>
+        <v>130400</v>
       </c>
       <c r="J17" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K17" s="3">
         <v>297000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>108800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>222900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,41 +1142,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1200</v>
+        <v>6200</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10200</v>
-      </c>
       <c r="I18" s="3">
-        <v>4300</v>
+        <v>-10100</v>
       </c>
       <c r="J18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1210,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6400</v>
       </c>
-      <c r="F20" s="3">
-        <v>5700</v>
-      </c>
       <c r="G20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1244,18 +1281,18 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,41 +1302,44 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,41 +1349,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2900</v>
+        <v>3500</v>
       </c>
       <c r="E23" s="3">
-        <v>-11700</v>
+        <v>-2800</v>
       </c>
       <c r="F23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I23" s="3">
-        <v>4500</v>
+        <v>-13100</v>
       </c>
       <c r="J23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,41 +1396,44 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-1100</v>
-      </c>
       <c r="I24" s="3">
-        <v>1700</v>
+        <v>-1000</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1490,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-13000</v>
-      </c>
       <c r="F26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12200</v>
-      </c>
       <c r="I26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1537,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3600</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-10200</v>
+        <v>-3500</v>
       </c>
       <c r="F27" s="3">
-        <v>3600</v>
+        <v>-10100</v>
       </c>
       <c r="G27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-11600</v>
-      </c>
       <c r="I27" s="3">
-        <v>3000</v>
+        <v>-11400</v>
       </c>
       <c r="J27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1772,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-5700</v>
-      </c>
       <c r="G32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1819,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3600</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-10200</v>
+        <v>-3500</v>
       </c>
       <c r="F33" s="3">
-        <v>3600</v>
+        <v>-10100</v>
       </c>
       <c r="G33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-11600</v>
-      </c>
       <c r="I33" s="3">
-        <v>3000</v>
+        <v>-11400</v>
       </c>
       <c r="J33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1913,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3600</v>
+        <v>1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-10200</v>
+        <v>-3500</v>
       </c>
       <c r="F35" s="3">
-        <v>3600</v>
+        <v>-10100</v>
       </c>
       <c r="G35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-11600</v>
-      </c>
       <c r="I35" s="3">
-        <v>3000</v>
+        <v>-11400</v>
       </c>
       <c r="J35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1960,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,31 +2052,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6500</v>
+        <v>13600</v>
       </c>
       <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
-        <v>8200</v>
-      </c>
       <c r="G41" s="3">
-        <v>9700</v>
+        <v>8100</v>
       </c>
       <c r="H41" s="3">
-        <v>7500</v>
+        <v>9600</v>
       </c>
       <c r="I41" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>18000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2010,31 +2097,34 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14800</v>
+        <v>9100</v>
       </c>
       <c r="E42" s="3">
-        <v>25700</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3">
-        <v>28400</v>
+        <v>25400</v>
       </c>
       <c r="G42" s="3">
-        <v>24900</v>
+        <v>28100</v>
       </c>
       <c r="H42" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="I42" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>25600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2054,31 +2144,34 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68900</v>
+        <v>70900</v>
       </c>
       <c r="E43" s="3">
-        <v>77200</v>
+        <v>68200</v>
       </c>
       <c r="F43" s="3">
-        <v>67200</v>
+        <v>76400</v>
       </c>
       <c r="G43" s="3">
-        <v>61800</v>
+        <v>66500</v>
       </c>
       <c r="H43" s="3">
-        <v>54700</v>
+        <v>61200</v>
       </c>
       <c r="I43" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>54200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>45000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
-        <v>10500</v>
-      </c>
       <c r="G45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
-        <v>8900</v>
-      </c>
       <c r="I45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,31 +2285,34 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>98300</v>
+        <v>102200</v>
       </c>
       <c r="E46" s="3">
-        <v>110200</v>
+        <v>97300</v>
       </c>
       <c r="F46" s="3">
-        <v>114300</v>
+        <v>109100</v>
       </c>
       <c r="G46" s="3">
-        <v>104600</v>
+        <v>113100</v>
       </c>
       <c r="H46" s="3">
-        <v>97000</v>
+        <v>103500</v>
       </c>
       <c r="I46" s="3">
-        <v>74900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>96000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>74100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2230,22 +2332,25 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>900</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
@@ -2253,8 +2358,8 @@
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2274,31 +2379,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
-        <v>4900</v>
-      </c>
       <c r="H48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I48" s="3">
         <v>7800</v>
       </c>
-      <c r="I48" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>3600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2318,31 +2426,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26200</v>
+        <v>23800</v>
       </c>
       <c r="E49" s="3">
-        <v>27400</v>
+        <v>26000</v>
       </c>
       <c r="F49" s="3">
-        <v>35600</v>
+        <v>27200</v>
       </c>
       <c r="G49" s="3">
-        <v>35500</v>
+        <v>35300</v>
       </c>
       <c r="H49" s="3">
-        <v>33300</v>
+        <v>35200</v>
       </c>
       <c r="I49" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>33000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22800</v>
+        <v>21600</v>
       </c>
       <c r="E52" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="F52" s="3">
         <v>22500</v>
       </c>
       <c r="G52" s="3">
-        <v>20300</v>
+        <v>22300</v>
       </c>
       <c r="H52" s="3">
-        <v>16600</v>
+        <v>20100</v>
       </c>
       <c r="I52" s="3">
-        <v>14700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,31 +2661,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150500</v>
+        <v>150100</v>
       </c>
       <c r="E54" s="3">
-        <v>164500</v>
+        <v>149000</v>
       </c>
       <c r="F54" s="3">
-        <v>176800</v>
+        <v>162800</v>
       </c>
       <c r="G54" s="3">
-        <v>165400</v>
+        <v>175000</v>
       </c>
       <c r="H54" s="3">
-        <v>154900</v>
+        <v>163700</v>
       </c>
       <c r="I54" s="3">
-        <v>106800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>153300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>105700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58200</v>
+        <v>59600</v>
       </c>
       <c r="E57" s="3">
-        <v>48000</v>
+        <v>57600</v>
       </c>
       <c r="F57" s="3">
-        <v>65100</v>
+        <v>47500</v>
       </c>
       <c r="G57" s="3">
-        <v>61100</v>
+        <v>64400</v>
       </c>
       <c r="H57" s="3">
-        <v>54600</v>
+        <v>60500</v>
       </c>
       <c r="I57" s="3">
-        <v>33400</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>54100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>33000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2662,31 +2793,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15400</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>21300</v>
+        <v>15200</v>
       </c>
       <c r="F58" s="3">
-        <v>20200</v>
+        <v>21100</v>
       </c>
       <c r="G58" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="H58" s="3">
-        <v>14700</v>
+        <v>20100</v>
       </c>
       <c r="I58" s="3">
-        <v>20700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>14500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2706,31 +2840,34 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
-        <v>18200</v>
-      </c>
       <c r="F59" s="3">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="G59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>10800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2750,31 +2887,34 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="E60" s="3">
-        <v>87500</v>
+        <v>73600</v>
       </c>
       <c r="F60" s="3">
-        <v>88700</v>
+        <v>86600</v>
       </c>
       <c r="G60" s="3">
-        <v>82200</v>
+        <v>87800</v>
       </c>
       <c r="H60" s="3">
-        <v>72100</v>
+        <v>81300</v>
       </c>
       <c r="I60" s="3">
-        <v>64900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>71400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>64300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2794,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="E62" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7300</v>
-      </c>
       <c r="G62" s="3">
-        <v>6700</v>
+        <v>7200</v>
       </c>
       <c r="H62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,31 +3169,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83900</v>
+        <v>78800</v>
       </c>
       <c r="E66" s="3">
-        <v>96900</v>
+        <v>83000</v>
       </c>
       <c r="F66" s="3">
-        <v>100700</v>
+        <v>95900</v>
       </c>
       <c r="G66" s="3">
-        <v>94500</v>
+        <v>99600</v>
       </c>
       <c r="H66" s="3">
-        <v>85700</v>
+        <v>93600</v>
       </c>
       <c r="I66" s="3">
-        <v>70700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>84800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>70000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>148100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>146600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,31 +3423,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-199900</v>
+        <v>-196100</v>
       </c>
       <c r="E72" s="3">
-        <v>-196300</v>
+        <v>-197800</v>
       </c>
       <c r="F72" s="3">
-        <v>-186000</v>
+        <v>-194300</v>
       </c>
       <c r="G72" s="3">
-        <v>-189600</v>
+        <v>-184100</v>
       </c>
       <c r="H72" s="3">
-        <v>-185200</v>
+        <v>-187700</v>
       </c>
       <c r="I72" s="3">
-        <v>-174100</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-183300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-172300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,31 +3611,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66600</v>
+        <v>71200</v>
       </c>
       <c r="E76" s="3">
-        <v>67600</v>
+        <v>66000</v>
       </c>
       <c r="F76" s="3">
-        <v>76200</v>
+        <v>66900</v>
       </c>
       <c r="G76" s="3">
-        <v>70900</v>
+        <v>75400</v>
       </c>
       <c r="H76" s="3">
-        <v>69200</v>
+        <v>70200</v>
       </c>
       <c r="I76" s="3">
-        <v>-111900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>68500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-110800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3705,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3757,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3600</v>
+        <v>1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-10200</v>
+        <v>-3500</v>
       </c>
       <c r="F81" s="3">
-        <v>3600</v>
+        <v>-10100</v>
       </c>
       <c r="G81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-11600</v>
-      </c>
       <c r="I81" s="3">
-        <v>3000</v>
+        <v>-11400</v>
       </c>
       <c r="J81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3659,8 +3858,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3923,8 +4140,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3985,8 +4206,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4117,8 +4347,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4355,8 +4601,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4399,8 +4648,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4411,8 +4660,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4443,8 +4695,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>QH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,67 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,44 +735,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>278100</v>
+        <v>239200</v>
       </c>
       <c r="E8" s="3">
-        <v>264900</v>
+        <v>269600</v>
       </c>
       <c r="F8" s="3">
-        <v>153700</v>
+        <v>256800</v>
       </c>
       <c r="G8" s="3">
-        <v>157100</v>
+        <v>149000</v>
       </c>
       <c r="H8" s="3">
-        <v>141000</v>
+        <v>152300</v>
       </c>
       <c r="I8" s="3">
-        <v>120300</v>
+        <v>136700</v>
       </c>
       <c r="J8" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K8" s="3">
         <v>77800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>215300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,44 +785,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>255600</v>
+        <v>230000</v>
       </c>
       <c r="E9" s="3">
-        <v>251600</v>
+        <v>247700</v>
       </c>
       <c r="F9" s="3">
-        <v>143000</v>
+        <v>243900</v>
       </c>
       <c r="G9" s="3">
-        <v>150000</v>
+        <v>138600</v>
       </c>
       <c r="H9" s="3">
-        <v>130800</v>
+        <v>145400</v>
       </c>
       <c r="I9" s="3">
-        <v>123500</v>
+        <v>126800</v>
       </c>
       <c r="J9" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K9" s="3">
         <v>69300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>271900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>198300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,44 +835,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22600</v>
+        <v>9200</v>
       </c>
       <c r="E10" s="3">
-        <v>13400</v>
+        <v>21900</v>
       </c>
       <c r="F10" s="3">
-        <v>10800</v>
+        <v>12900</v>
       </c>
       <c r="G10" s="3">
-        <v>7200</v>
+        <v>10400</v>
       </c>
       <c r="H10" s="3">
-        <v>10200</v>
+        <v>6900</v>
       </c>
       <c r="I10" s="3">
-        <v>-3200</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,44 +907,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>700</v>
-      </c>
       <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
-        <v>700</v>
-      </c>
       <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,22 +1005,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1020,8 +1040,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,44 +1124,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>271900</v>
+        <v>241000</v>
       </c>
       <c r="E17" s="3">
-        <v>266100</v>
+        <v>263600</v>
       </c>
       <c r="F17" s="3">
-        <v>158700</v>
+        <v>257900</v>
       </c>
       <c r="G17" s="3">
-        <v>159900</v>
+        <v>153800</v>
       </c>
       <c r="H17" s="3">
-        <v>143100</v>
+        <v>155000</v>
       </c>
       <c r="I17" s="3">
-        <v>130400</v>
+        <v>138700</v>
       </c>
       <c r="J17" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K17" s="3">
         <v>73600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>297000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>222900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,44 +1172,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6200</v>
+        <v>-1700</v>
       </c>
       <c r="E18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I18" s="3">
-        <v>-10100</v>
+        <v>-2000</v>
       </c>
       <c r="J18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,44 +1244,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>-2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1000</v>
+        <v>5400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2900</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1284,18 +1321,18 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,10 +1354,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1329,20 +1369,20 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,44 +1392,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3500</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2800</v>
+        <v>3400</v>
       </c>
       <c r="F23" s="3">
-        <v>-11600</v>
+        <v>-2700</v>
       </c>
       <c r="G23" s="3">
-        <v>2600</v>
+        <v>-11300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3300</v>
+        <v>2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-3200</v>
       </c>
       <c r="J23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1399,44 +1442,47 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,44 +1542,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3800</v>
-      </c>
       <c r="F26" s="3">
-        <v>-12900</v>
+        <v>-3700</v>
       </c>
       <c r="G26" s="3">
-        <v>2700</v>
+        <v>-12500</v>
       </c>
       <c r="H26" s="3">
-        <v>-4900</v>
+        <v>2600</v>
       </c>
       <c r="I26" s="3">
-        <v>-12100</v>
+        <v>-4700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,44 +1592,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1700</v>
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
-        <v>-3500</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-10100</v>
+        <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>3500</v>
+        <v>-9800</v>
       </c>
       <c r="H27" s="3">
-        <v>-4400</v>
+        <v>3400</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>-4300</v>
       </c>
       <c r="J27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,44 +1842,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3">
-        <v>1000</v>
+        <v>-5400</v>
       </c>
       <c r="I32" s="3">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,44 +1892,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1700</v>
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
-        <v>-3500</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-10100</v>
+        <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>3500</v>
+        <v>-9800</v>
       </c>
       <c r="H33" s="3">
-        <v>-4400</v>
+        <v>3400</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>-4300</v>
       </c>
       <c r="J33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,44 +1992,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1700</v>
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
-        <v>-3500</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-10100</v>
+        <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>3500</v>
+        <v>-9800</v>
       </c>
       <c r="H35" s="3">
-        <v>-4400</v>
+        <v>3400</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>-4300</v>
       </c>
       <c r="J35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,49 +2042,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2097,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13600</v>
+        <v>15900</v>
       </c>
       <c r="E41" s="3">
-        <v>6400</v>
+        <v>13200</v>
       </c>
       <c r="F41" s="3">
-        <v>4100</v>
+        <v>6200</v>
       </c>
       <c r="G41" s="3">
-        <v>8100</v>
+        <v>3900</v>
       </c>
       <c r="H41" s="3">
-        <v>9600</v>
+        <v>7900</v>
       </c>
       <c r="I41" s="3">
-        <v>7400</v>
+        <v>9300</v>
       </c>
       <c r="J41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>8900</v>
       </c>
       <c r="F42" s="3">
-        <v>25400</v>
+        <v>14200</v>
       </c>
       <c r="G42" s="3">
-        <v>28100</v>
+        <v>24600</v>
       </c>
       <c r="H42" s="3">
-        <v>24700</v>
+        <v>27200</v>
       </c>
       <c r="I42" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="J42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70900</v>
+        <v>68400</v>
       </c>
       <c r="E43" s="3">
-        <v>68200</v>
+        <v>68700</v>
       </c>
       <c r="F43" s="3">
-        <v>76400</v>
+        <v>66100</v>
       </c>
       <c r="G43" s="3">
-        <v>66500</v>
+        <v>74100</v>
       </c>
       <c r="H43" s="3">
-        <v>61200</v>
+        <v>64500</v>
       </c>
       <c r="I43" s="3">
-        <v>54200</v>
+        <v>59300</v>
       </c>
       <c r="J43" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K43" s="3">
         <v>45000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
-        <v>8100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>10400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>102200</v>
+        <v>101300</v>
       </c>
       <c r="E46" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="F46" s="3">
-        <v>109100</v>
+        <v>94300</v>
       </c>
       <c r="G46" s="3">
-        <v>113100</v>
+        <v>105700</v>
       </c>
       <c r="H46" s="3">
-        <v>103500</v>
+        <v>109600</v>
       </c>
       <c r="I46" s="3">
-        <v>96000</v>
+        <v>100300</v>
       </c>
       <c r="J46" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K46" s="3">
         <v>74100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,24 +2451,24 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>900</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
-        <v>200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>200</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="I48" s="3">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="J48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,35 +2537,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="E49" s="3">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="F49" s="3">
-        <v>27200</v>
+        <v>25200</v>
       </c>
       <c r="G49" s="3">
-        <v>35300</v>
+        <v>26300</v>
       </c>
       <c r="H49" s="3">
-        <v>35200</v>
+        <v>34200</v>
       </c>
       <c r="I49" s="3">
-        <v>33000</v>
+        <v>34100</v>
       </c>
       <c r="J49" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K49" s="3">
         <v>13200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>21900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="H52" s="3">
         <v>21600</v>
       </c>
-      <c r="E52" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>22500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>22300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>20100</v>
-      </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>19500</v>
       </c>
       <c r="J52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150100</v>
+        <v>149600</v>
       </c>
       <c r="E54" s="3">
-        <v>149000</v>
+        <v>145400</v>
       </c>
       <c r="F54" s="3">
-        <v>162800</v>
+        <v>144400</v>
       </c>
       <c r="G54" s="3">
-        <v>175000</v>
+        <v>157800</v>
       </c>
       <c r="H54" s="3">
-        <v>163700</v>
+        <v>169600</v>
       </c>
       <c r="I54" s="3">
-        <v>153300</v>
+        <v>158700</v>
       </c>
       <c r="J54" s="3">
+        <v>148600</v>
+      </c>
+      <c r="K54" s="3">
         <v>105700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59600</v>
+        <v>57200</v>
       </c>
       <c r="E57" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F57" s="3">
-        <v>47500</v>
+        <v>55800</v>
       </c>
       <c r="G57" s="3">
-        <v>64400</v>
+        <v>46000</v>
       </c>
       <c r="H57" s="3">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="I57" s="3">
-        <v>54100</v>
+        <v>58600</v>
       </c>
       <c r="J57" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K57" s="3">
         <v>33000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9300</v>
+        <v>13200</v>
       </c>
       <c r="E58" s="3">
-        <v>15200</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="3">
-        <v>21100</v>
+        <v>14700</v>
       </c>
       <c r="G58" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="H58" s="3">
-        <v>20100</v>
+        <v>19400</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="J58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K58" s="3">
         <v>20500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
-        <v>18000</v>
-      </c>
       <c r="G59" s="3">
-        <v>3400</v>
+        <v>17400</v>
       </c>
       <c r="H59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
-        <v>2800</v>
-      </c>
       <c r="J59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69400</v>
+        <v>71000</v>
       </c>
       <c r="E60" s="3">
-        <v>73600</v>
+        <v>67200</v>
       </c>
       <c r="F60" s="3">
-        <v>86600</v>
+        <v>71300</v>
       </c>
       <c r="G60" s="3">
-        <v>87800</v>
+        <v>83900</v>
       </c>
       <c r="H60" s="3">
-        <v>81300</v>
+        <v>85100</v>
       </c>
       <c r="I60" s="3">
-        <v>71400</v>
+        <v>78800</v>
       </c>
       <c r="J60" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K60" s="3">
         <v>64300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,26 +3089,26 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>300</v>
-      </c>
       <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E62" s="3">
-        <v>7400</v>
+        <v>9500</v>
       </c>
       <c r="F62" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H62" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="I62" s="3">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="J62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78800</v>
+        <v>80900</v>
       </c>
       <c r="E66" s="3">
-        <v>83000</v>
+        <v>76400</v>
       </c>
       <c r="F66" s="3">
-        <v>95900</v>
+        <v>80500</v>
       </c>
       <c r="G66" s="3">
-        <v>99600</v>
+        <v>92900</v>
       </c>
       <c r="H66" s="3">
-        <v>93600</v>
+        <v>96600</v>
       </c>
       <c r="I66" s="3">
-        <v>84800</v>
+        <v>90700</v>
       </c>
       <c r="J66" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K66" s="3">
         <v>70000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,11 +3524,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>146600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196100</v>
+        <v>-191400</v>
       </c>
       <c r="E72" s="3">
-        <v>-197800</v>
+        <v>-190100</v>
       </c>
       <c r="F72" s="3">
-        <v>-194300</v>
+        <v>-191700</v>
       </c>
       <c r="G72" s="3">
-        <v>-184100</v>
+        <v>-188300</v>
       </c>
       <c r="H72" s="3">
-        <v>-187700</v>
+        <v>-178500</v>
       </c>
       <c r="I72" s="3">
-        <v>-183300</v>
+        <v>-181900</v>
       </c>
       <c r="J72" s="3">
+        <v>-177600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-172300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71200</v>
+        <v>68700</v>
       </c>
       <c r="E76" s="3">
-        <v>66000</v>
+        <v>69100</v>
       </c>
       <c r="F76" s="3">
-        <v>66900</v>
+        <v>63900</v>
       </c>
       <c r="G76" s="3">
-        <v>75400</v>
+        <v>64900</v>
       </c>
       <c r="H76" s="3">
-        <v>70200</v>
+        <v>73100</v>
       </c>
       <c r="I76" s="3">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="J76" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-110800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,49 +3897,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3760,44 +3952,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1700</v>
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
-        <v>-3500</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-10100</v>
+        <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>3500</v>
+        <v>-9800</v>
       </c>
       <c r="H81" s="3">
-        <v>-4400</v>
+        <v>3400</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>-4300</v>
       </c>
       <c r="J81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4143,8 +4360,8 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4209,8 +4430,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4350,8 +4580,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4604,8 +4850,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4651,8 +4900,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4698,8 +4950,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QH_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>239200</v>
+        <v>239700</v>
       </c>
       <c r="E8" s="3">
-        <v>269600</v>
+        <v>270200</v>
       </c>
       <c r="F8" s="3">
-        <v>256800</v>
+        <v>257400</v>
       </c>
       <c r="G8" s="3">
-        <v>149000</v>
+        <v>149300</v>
       </c>
       <c r="H8" s="3">
-        <v>152300</v>
+        <v>152600</v>
       </c>
       <c r="I8" s="3">
-        <v>136700</v>
+        <v>136900</v>
       </c>
       <c r="J8" s="3">
-        <v>116600</v>
+        <v>116900</v>
       </c>
       <c r="K8" s="3">
         <v>77800</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>230000</v>
+        <v>230500</v>
       </c>
       <c r="E9" s="3">
-        <v>247700</v>
+        <v>248200</v>
       </c>
       <c r="F9" s="3">
-        <v>243900</v>
+        <v>244400</v>
       </c>
       <c r="G9" s="3">
-        <v>138600</v>
+        <v>138900</v>
       </c>
       <c r="H9" s="3">
-        <v>145400</v>
+        <v>145700</v>
       </c>
       <c r="I9" s="3">
-        <v>126800</v>
+        <v>127000</v>
       </c>
       <c r="J9" s="3">
-        <v>119700</v>
+        <v>120000</v>
       </c>
       <c r="K9" s="3">
         <v>69300</v>
@@ -850,13 +850,13 @@
         <v>21900</v>
       </c>
       <c r="F10" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G10" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H10" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I10" s="3">
         <v>9900</v>
@@ -932,7 +932,7 @@
         <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>241000</v>
+        <v>241500</v>
       </c>
       <c r="E17" s="3">
-        <v>263600</v>
+        <v>264100</v>
       </c>
       <c r="F17" s="3">
-        <v>257900</v>
+        <v>258500</v>
       </c>
       <c r="G17" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="H17" s="3">
-        <v>155000</v>
+        <v>155300</v>
       </c>
       <c r="I17" s="3">
-        <v>138700</v>
+        <v>139000</v>
       </c>
       <c r="J17" s="3">
-        <v>126400</v>
+        <v>126700</v>
       </c>
       <c r="K17" s="3">
         <v>73600</v>
@@ -1419,7 +1419,7 @@
         <v>-3200</v>
       </c>
       <c r="J23" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="K23" s="3">
         <v>4400</v>
@@ -1566,10 +1566,10 @@
         <v>2600</v>
       </c>
       <c r="I26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="J26" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="K26" s="3">
         <v>2800</v>
@@ -1610,7 +1610,7 @@
         <v>-3400</v>
       </c>
       <c r="G27" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H27" s="3">
         <v>3400</v>
@@ -1910,7 +1910,7 @@
         <v>-3400</v>
       </c>
       <c r="G33" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H33" s="3">
         <v>3400</v>
@@ -2010,7 +2010,7 @@
         <v>-3400</v>
       </c>
       <c r="G35" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H35" s="3">
         <v>3400</v>
@@ -2205,16 +2205,16 @@
         <v>14200</v>
       </c>
       <c r="G42" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="H42" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="I42" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="J42" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="K42" s="3">
         <v>8000</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68400</v>
+        <v>68500</v>
       </c>
       <c r="E43" s="3">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="F43" s="3">
-        <v>66100</v>
+        <v>66200</v>
       </c>
       <c r="G43" s="3">
-        <v>74100</v>
+        <v>74200</v>
       </c>
       <c r="H43" s="3">
-        <v>64500</v>
+        <v>64600</v>
       </c>
       <c r="I43" s="3">
-        <v>59300</v>
+        <v>59400</v>
       </c>
       <c r="J43" s="3">
-        <v>52500</v>
+        <v>52600</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
@@ -2349,7 +2349,7 @@
         <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F45" s="3">
         <v>7900</v>
@@ -2358,7 +2358,7 @@
         <v>3100</v>
       </c>
       <c r="H45" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I45" s="3">
         <v>7800</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>101300</v>
+        <v>101600</v>
       </c>
       <c r="E46" s="3">
-        <v>99100</v>
+        <v>99300</v>
       </c>
       <c r="F46" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="G46" s="3">
-        <v>105700</v>
+        <v>106000</v>
       </c>
       <c r="H46" s="3">
-        <v>109600</v>
+        <v>109900</v>
       </c>
       <c r="I46" s="3">
-        <v>100300</v>
+        <v>100500</v>
       </c>
       <c r="J46" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="K46" s="3">
         <v>74100</v>
@@ -2546,22 +2546,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="E49" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F49" s="3">
         <v>25200</v>
       </c>
       <c r="G49" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="H49" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I49" s="3">
         <v>34200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>34100</v>
       </c>
       <c r="J49" s="3">
         <v>32000</v>
@@ -2702,7 +2702,7 @@
         <v>21000</v>
       </c>
       <c r="F52" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G52" s="3">
         <v>21800</v>
@@ -2714,7 +2714,7 @@
         <v>19500</v>
       </c>
       <c r="J52" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="K52" s="3">
         <v>14500</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149600</v>
+        <v>149900</v>
       </c>
       <c r="E54" s="3">
-        <v>145400</v>
+        <v>145800</v>
       </c>
       <c r="F54" s="3">
-        <v>144400</v>
+        <v>144700</v>
       </c>
       <c r="G54" s="3">
-        <v>157800</v>
+        <v>158200</v>
       </c>
       <c r="H54" s="3">
-        <v>169600</v>
+        <v>170000</v>
       </c>
       <c r="I54" s="3">
-        <v>158700</v>
+        <v>159100</v>
       </c>
       <c r="J54" s="3">
-        <v>148600</v>
+        <v>148900</v>
       </c>
       <c r="K54" s="3">
         <v>105700</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="E57" s="3">
-        <v>57800</v>
+        <v>57900</v>
       </c>
       <c r="F57" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="G57" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="H57" s="3">
-        <v>62400</v>
+        <v>62600</v>
       </c>
       <c r="I57" s="3">
-        <v>58600</v>
+        <v>58700</v>
       </c>
       <c r="J57" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="K57" s="3">
         <v>33000</v>
@@ -2942,7 +2942,7 @@
         <v>9000</v>
       </c>
       <c r="F58" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G58" s="3">
         <v>20500</v>
@@ -2995,7 +2995,7 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H59" s="3">
         <v>3300</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71000</v>
+        <v>71200</v>
       </c>
       <c r="E60" s="3">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="F60" s="3">
-        <v>71300</v>
+        <v>71500</v>
       </c>
       <c r="G60" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="H60" s="3">
-        <v>85100</v>
+        <v>85300</v>
       </c>
       <c r="I60" s="3">
-        <v>78800</v>
+        <v>79000</v>
       </c>
       <c r="J60" s="3">
-        <v>69200</v>
+        <v>69300</v>
       </c>
       <c r="K60" s="3">
         <v>64300</v>
@@ -3151,10 +3151,10 @@
         <v>7000</v>
       </c>
       <c r="I62" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J62" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K62" s="3">
         <v>3600</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80900</v>
+        <v>81000</v>
       </c>
       <c r="E66" s="3">
-        <v>76400</v>
+        <v>76600</v>
       </c>
       <c r="F66" s="3">
-        <v>80500</v>
+        <v>80700</v>
       </c>
       <c r="G66" s="3">
-        <v>92900</v>
+        <v>93100</v>
       </c>
       <c r="H66" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="I66" s="3">
-        <v>90700</v>
+        <v>90900</v>
       </c>
       <c r="J66" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="K66" s="3">
         <v>70000</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-191400</v>
+        <v>-191900</v>
       </c>
       <c r="E72" s="3">
-        <v>-190100</v>
+        <v>-190500</v>
       </c>
       <c r="F72" s="3">
-        <v>-191700</v>
+        <v>-192200</v>
       </c>
       <c r="G72" s="3">
-        <v>-188300</v>
+        <v>-188700</v>
       </c>
       <c r="H72" s="3">
-        <v>-178500</v>
+        <v>-178900</v>
       </c>
       <c r="I72" s="3">
-        <v>-181900</v>
+        <v>-182300</v>
       </c>
       <c r="J72" s="3">
-        <v>-177600</v>
+        <v>-178000</v>
       </c>
       <c r="K72" s="3">
         <v>-172300</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68700</v>
+        <v>68900</v>
       </c>
       <c r="E76" s="3">
-        <v>69100</v>
+        <v>69200</v>
       </c>
       <c r="F76" s="3">
-        <v>63900</v>
+        <v>64100</v>
       </c>
       <c r="G76" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="H76" s="3">
-        <v>73100</v>
+        <v>73200</v>
       </c>
       <c r="I76" s="3">
-        <v>68000</v>
+        <v>68200</v>
       </c>
       <c r="J76" s="3">
-        <v>66400</v>
+        <v>66600</v>
       </c>
       <c r="K76" s="3">
         <v>-110800</v>
@@ -3970,7 +3970,7 @@
         <v>-3400</v>
       </c>
       <c r="G81" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H81" s="3">
         <v>3400</v>
